--- a/finalfeeds/division/KuantoKustaFeedDivision_Cheil.xlsx
+++ b/finalfeeds/division/KuantoKustaFeedDivision_Cheil.xlsx
@@ -16333,9 +16333,21 @@
           <t>https://ad.doubleclick.net/ddm/clk/523365755;331497537;s?</t>
         </is>
       </c>
-      <c r="E439" t="inlineStr"/>
-      <c r="F439" t="inlineStr"/>
-      <c r="G439" t="inlineStr"/>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>DA</t>
+        </is>
+      </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>ELECTRODOMESTICOS</t>
+        </is>
+      </c>
+      <c r="G439" t="inlineStr">
+        <is>
+          <t>FRIGORIFICOS</t>
+        </is>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
